--- a/data/historical_data.xlsx
+++ b/data/historical_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\macro-app-etl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E6BDD3-7920-4F84-AC78-C8CBB7F5A775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E693C685-536A-46CF-A633-4DC8F907A9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B94B1977-A477-48A5-BE11-A245B9331C97}"/>
+    <workbookView xWindow="4710" yWindow="4245" windowWidth="21600" windowHeight="11235" activeTab="2" xr2:uid="{B94B1977-A477-48A5-BE11-A245B9331C97}"/>
   </bookViews>
   <sheets>
     <sheet name="ISM" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <t>2018-02-08 00:05:28 UTC</t>
   </si>
   <si>
-    <t xml:space="preserve"> Global M2</t>
+    <t>Global M2</t>
   </si>
 </sst>
 </file>
@@ -60939,7 +60939,7 @@
   <dimension ref="A1:B636"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66038,7 +66038,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{258324CD-E921-4611-8EC6-3FC02AEAB053}"/>
+    <hyperlink ref="B1" r:id="rId1" display=" Global M2" xr:uid="{258324CD-E921-4611-8EC6-3FC02AEAB053}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/historical_data.xlsx
+++ b/data/historical_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\macro-app-etl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E693C685-536A-46CF-A633-4DC8F907A9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51E6295-4658-4AFB-B478-47EB6DDA3A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="4245" windowWidth="21600" windowHeight="11235" activeTab="2" xr2:uid="{B94B1977-A477-48A5-BE11-A245B9331C97}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B94B1977-A477-48A5-BE11-A245B9331C97}"/>
   </bookViews>
   <sheets>
     <sheet name="ISM" sheetId="1" r:id="rId1"/>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A89E18B-3775-4065-BF5C-FF6D766633B5}">
-  <dimension ref="A1:D421"/>
+  <dimension ref="A1:D423"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6379,6 +6379,34 @@
       </c>
       <c r="D421">
         <v>49.2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B422">
+        <v>48</v>
+      </c>
+      <c r="C422">
+        <v>47.1</v>
+      </c>
+      <c r="D422">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B423">
+        <v>48.7</v>
+      </c>
+      <c r="C423">
+        <v>51.4</v>
+      </c>
+      <c r="D423">
+        <v>49.4</v>
       </c>
     </row>
   </sheetData>
@@ -60936,10 +60964,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18639405-7DDF-4F8B-BB94-784B1409B661}">
-  <dimension ref="A1:B636"/>
+  <dimension ref="A1:B640"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A612" workbookViewId="0">
+      <selection activeCell="D638" sqref="D638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66017,7 +66045,7 @@
         <v>45859</v>
       </c>
       <c r="B634" s="3">
-        <v>113309695125542</v>
+        <v>113358909728410</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -66025,7 +66053,7 @@
         <v>45866</v>
       </c>
       <c r="B635" s="3">
-        <v>112662985632176</v>
+        <v>113970584296938</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -66033,7 +66061,39 @@
         <v>45873</v>
       </c>
       <c r="B636" s="3">
-        <v>112787988458315</v>
+        <v>113029917319685</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B637" s="3">
+        <v>113355120168201</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B638" s="3">
+        <v>113469317661406</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B639" s="3">
+        <v>113616713481550</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B640" s="3">
+        <v>113305516597911</v>
       </c>
     </row>
   </sheetData>
